--- a/demo/Chocolate/Distance/Statistics.xlsx
+++ b/demo/Chocolate/Distance/Statistics.xlsx
@@ -196,43 +196,43 @@
         <v>4</v>
       </c>
       <c r="C2" s="0">
-        <v>6.3938254756910631</v>
+        <v>6.3953358543080769</v>
       </c>
       <c r="D2" s="0">
-        <v>1640.0661664741185</v>
+        <v>1702.4038015492456</v>
       </c>
       <c r="E2" s="0">
-        <v>6.4431779192548397</v>
+        <v>6.4428916817357198</v>
       </c>
       <c r="F2" s="0">
-        <v>6.345223329330258</v>
+        <v>6.3484769146432987</v>
       </c>
       <c r="G2" s="0">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H2" s="0">
-        <v>6.4006279835799997</v>
+        <v>6.4008627016621622</v>
       </c>
       <c r="I2" s="0">
-        <v>0.31758259234368591</v>
+        <v>0.30421548608225651</v>
       </c>
       <c r="J2" s="0">
-        <v>0.025930510081078339</v>
+        <v>0.025006358917264996</v>
       </c>
       <c r="K2" s="0">
         <v>6.4042741164999999</v>
       </c>
       <c r="L2" s="0">
-        <v>6.1967543090000001</v>
+        <v>6.2033664315000001</v>
       </c>
       <c r="M2" s="0">
-        <v>6.6063427419999998</v>
+        <v>6.6057910829999997</v>
       </c>
       <c r="N2" s="0">
-        <v>6.3493889539555868</v>
+        <v>6.351444302235671</v>
       </c>
       <c r="O2" s="0">
-        <v>6.4518670132044127</v>
+        <v>6.4502811010886534</v>
       </c>
     </row>
     <row r="3">
@@ -243,43 +243,43 @@
         <v>5</v>
       </c>
       <c r="C3" s="0">
-        <v>6.3963819655125365</v>
+        <v>6.3977127614468232</v>
       </c>
       <c r="D3" s="0">
-        <v>1641.405664183359</v>
+        <v>1703.7476768436925</v>
       </c>
       <c r="E3" s="0">
-        <v>6.4457334170453233</v>
+        <v>6.4452662585058995</v>
       </c>
       <c r="F3" s="0">
-        <v>6.347780485940909</v>
+        <v>6.3508558292602313</v>
       </c>
       <c r="G3" s="0">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H3" s="0">
-        <v>6.4121437040599991</v>
+        <v>6.4121717987364857</v>
       </c>
       <c r="I3" s="0">
-        <v>0.31750415794280612</v>
+        <v>0.30439354425456205</v>
       </c>
       <c r="J3" s="0">
-        <v>0.025924105939063791</v>
+        <v>0.025020995208869232</v>
       </c>
       <c r="K3" s="0">
         <v>6.4195765219999998</v>
       </c>
       <c r="L3" s="0">
-        <v>6.2188592920000003</v>
+        <v>6.2231268034999996</v>
       </c>
       <c r="M3" s="0">
-        <v>6.6254884709999997</v>
+        <v>6.6217078469999997</v>
       </c>
       <c r="N3" s="0">
-        <v>6.3609173291045984</v>
+        <v>6.3627244745830076</v>
       </c>
       <c r="O3" s="0">
-        <v>6.4633700790153998</v>
+        <v>6.4616191228899638</v>
       </c>
     </row>
     <row r="4">
@@ -290,43 +290,43 @@
         <v>6</v>
       </c>
       <c r="C4" s="0">
-        <v>7.7910000641655479</v>
+        <v>7.7800501291614896</v>
       </c>
       <c r="D4" s="0">
-        <v>1338.2154541639627</v>
+        <v>1391.4745494088631</v>
       </c>
       <c r="E4" s="0">
-        <v>7.8811500980249596</v>
+        <v>7.8664691030579812</v>
       </c>
       <c r="F4" s="0">
-        <v>7.7028891025955719</v>
+        <v>7.6955092752578995</v>
       </c>
       <c r="G4" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="0">
-        <v>7.8132027884599999</v>
+        <v>7.800643225494948</v>
       </c>
       <c r="I4" s="0">
-        <v>0.41992296503290127</v>
+        <v>0.40273988165626112</v>
       </c>
       <c r="J4" s="0">
-        <v>0.04199229650329013</v>
+        <v>0.040476881077756231</v>
       </c>
       <c r="K4" s="0">
-        <v>7.7929037809999997</v>
+        <v>7.7882664259999999</v>
       </c>
       <c r="L4" s="0">
-        <v>7.4908276384999999</v>
+        <v>7.4907352527500004</v>
       </c>
       <c r="M4" s="0">
-        <v>8.0569310524999995</v>
+        <v>8.0477386592499993</v>
       </c>
       <c r="N4" s="0">
-        <v>7.7298809619021283</v>
+        <v>7.7203181723361309</v>
       </c>
       <c r="O4" s="0">
-        <v>7.8965246150178716</v>
+        <v>7.8809682786537651</v>
       </c>
     </row>
     <row r="5">
@@ -337,43 +337,43 @@
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>7.781534738798408</v>
+        <v>7.7703871077198361</v>
       </c>
       <c r="D5" s="0">
-        <v>1340.3922175563521</v>
+        <v>1393.6614472982635</v>
       </c>
       <c r="E5" s="0">
-        <v>7.8713168651822851</v>
+        <v>7.8564535903119221</v>
       </c>
       <c r="F5" s="0">
-        <v>7.6937776670524771</v>
+        <v>7.6861858868728339</v>
       </c>
       <c r="G5" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="0">
-        <v>7.803583906900001</v>
+        <v>7.7908388779191915</v>
       </c>
       <c r="I5" s="0">
-        <v>0.41934142825016113</v>
+        <v>0.40153737786211341</v>
       </c>
       <c r="J5" s="0">
-        <v>0.041934142825016112</v>
+        <v>0.040356024899145117</v>
       </c>
       <c r="K5" s="0">
-        <v>7.7947946970000004</v>
+        <v>7.7940105600000003</v>
       </c>
       <c r="L5" s="0">
-        <v>7.4800183735000001</v>
+        <v>7.4779692312500003</v>
       </c>
       <c r="M5" s="0">
-        <v>8.0420734085000003</v>
+        <v>8.0341843214999997</v>
       </c>
       <c r="N5" s="0">
-        <v>7.7203774698563583</v>
+        <v>7.7107536599135038</v>
       </c>
       <c r="O5" s="0">
-        <v>7.8867903439436438</v>
+        <v>7.8709240959248792</v>
       </c>
     </row>
   </sheetData>
